--- a/assets/Year2023text/combined/2023_student_4.xlsx
+++ b/assets/Year2023text/combined/2023_student_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">holes to attach the circuits Modules for the circuit  However, after talking with Prof. </t>
+          <t xml:space="preserve">Rube Goldberg: Input: Heartbeat Output: Broadcast wifi message  Design  The general idea is to divide the whole mechanism into two parts, In the first part, the input of heartbeat will transit into motor movement, which will trigger some kind physical mechanism that push the button. </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,18 +467,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8117911219596863</v>
+        <v>0.7304884791374207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The construction of cities with wooden blocks is something recurrent in my work with a group of 5-8-year-olds. </t>
+          <t xml:space="preserve">Then, the button will trigger the broadcast mechanism, which will be received by the next group. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,18 +487,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6440204381942749</v>
+        <v>0.7865948081016541</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">This objective would be related to setting up a  circuit that would supply energy to the city in a specific way. </t>
+          <t xml:space="preserve">At the beginning we had different ideas, such as designing a car that would transport weight and then would deposit the objects triggering the next button. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,38 +507,38 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6015677452087402</v>
+        <v>0.6519540548324585</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">On the board, players can acquire parts of their city, electric circuit, and tips on assembling them. </t>
+          <t xml:space="preserve">Finally, we decided to build a pulley with wood, and a box and a gear with the laser cutter machine. </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7061073780059814</v>
+        <v>0.5006070733070374</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ElectricCity Recommended age: 8-11 years old  Learning objectives: Identify the parts of an electrical circuit (e.g., battery, wires, switch, light bulb) Describe the flow of electricity in a simple circuit. </t>
+          <t xml:space="preserve">prototype  We cut a piece of wood to make a base and we cut a wood stick. </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -547,18 +547,18 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8264408707618713</v>
+        <v>0.6856973767280579</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">polarity, closed circuit) Understand the difference between a closed loop and an open loop. </t>
+          <t xml:space="preserve">Then, we made a hole in he base to attach the vertical wood stick. </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -567,18 +567,18 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8252986073493958</v>
+        <v>0.6949322819709778</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Explain how switches can be used to turn circuits on and off. </t>
+          <t xml:space="preserve">We made a hole in the vertical stick to attach the gear. </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,18 +587,18 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8194703459739685</v>
+        <v>0.7383567094802856</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Investigate how different types of materials affect the flow of electricity in a circuit. </t>
+          <t xml:space="preserve">We laser cut 4 circles to build a gear, and a box. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -607,18 +607,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7611668705940247</v>
+        <v>0.7743086814880371</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Build and test simple circuits using batteries, wires, and light bulbs. </t>
+          <t xml:space="preserve">Then, we decided to make another hole in the base to attach the motor. </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -627,18 +627,18 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7161621451377869</v>
+        <v>0.6969214081764221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compare and contrast series and parallel circuits. </t>
+          <t xml:space="preserve">We put weight in the box to trigger a button behind the box that sends a wifi message to the next station. </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -647,18 +647,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7481787204742432</v>
+        <v>0.7370195984840393</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Understand the importance of safety when working with electrical circuits. </t>
+          <t xml:space="preserve">We glued the pieces of the box, and added magnets to make the box heavy. </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -667,18 +667,18 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5406734943389893</v>
+        <v>0.6831265091896057</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">buildings, roads, trees) Parts to build the circuits (e.g. </t>
+          <t xml:space="preserve">final station  How we code the two mechanisms with GoGo Code  This is the final version of the box with some flowers as decorations. </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -687,18 +687,18 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7666972875595093</v>
+        <v>0.7212004065513611</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">batteries, wires, switches, light bulbs) Dice (just with the numbers 1, 2, 3) Player markers Players Scenario Hourglass  Objective: Create your city and the electricity circuits on your mission cards. </t>
+          <t xml:space="preserve">At the end, we laser cut a heart to decorate the heartbeat sensor. </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -707,18 +707,18 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8245821595191956</v>
+        <v>0.6118884086608887</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">If the house is an electric circuit part: The player can acquire the marked part if the house is a place to receive circuit parts. </t>
+          <t xml:space="preserve">It can be difficult to imagine mechanism working, to prototype real physics working, and trying the best materials, and weight. </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -727,18 +727,18 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8361459970474243</v>
+        <v>0.4700081050395966</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part 2 - Building Turn the 15 minutes hourglass upside down Try to build the circuits until the time ends. </t>
+          <t xml:space="preserve">We learnt how to shape and work with wood, continue trying laser cutter machine and added physics mechanism. </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -747,47 +747,47 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7858635783195496</v>
+        <v>0.5785179734230042</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">When the time finishes, the mission is accomplished if the circuit is working. </t>
+          <t xml:space="preserve">We then decided to use an extra button and the gear to interpolate between the heartbeat. </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.563042163848877</v>
+        <v>0.6574068665504456</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">This 2 graphics sintethyze two main concepts/powerful ideas: Circular Economy butterfly diagram Regenerative thinking  Atlas book memory While I was writing my project to build a map, I remembered the Atlas book that was in my school's library. </t>
+          <t xml:space="preserve">Another thing we encountered is how to come up with a solid structure that supports the gear. </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5738415122032166</v>
+        <v>0.4765206277370453</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -798,16 +798,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Features: -The cables would have at the ends metal; the objects would have at the ends magnets to connect them to the cables and to the map. </t>
+          <t xml:space="preserve">After considering the level of convenience for both, we finally decide on a disc base, which will allow us to fix layout for other elements like the button and the motor. </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7684430480003357</v>
+        <v>0.5021809935569763</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">The holes on the maps would also have a piece of metal. </t>
+          <t xml:space="preserve">We  needed something that would carry the water without absorbing it, so wood wouldn't work without another material on top. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -827,38 +827,38 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5908046960830688</v>
+        <v>0.5427431464195251</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Powerful idea version 1:  Architecture, as a form of media, is casting long lasting influences to the society/community. </t>
+          <t xml:space="preserve">We found this tube and began researching simple machines (specifically levers and pulleys) as a way to move the tube. </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7506164908409119</v>
+        <v>0.6779966354370117</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">These are the "social studies practices, the social science and historical thinking skills that students should develop throughout their K-12 education in order to be prepared for civic participation, college, and careers" listed in the New York State K-12 Social Studies Framework, and I've highlighted the ones that will be cultivated in my design:  1) Gathering, Interpreting and Using Evidence 2) Chronological Reasoning and Causation 3) Comparison and Contextualization 4) Geographic Reasoning 5) Economics and Economic Systems 6) Civic Participation  Learning Goal: Based on the information above, I summarized my learning goal as: Students (age to-be-decided) will create historically accurate representations of how a neighborhood evolves along time. </t>
+          <t xml:space="preserve">We found a motor that we could make into a pulley, we just needed to find something heavy enough (hockey puck) to actually move the tube. </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -867,58 +867,58 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6853716373443604</v>
+        <v>0.6119291186332703</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">I do think this learning goal is a bit too big? </t>
+          <t xml:space="preserve">Prototyping &amp; Moments of Learning We attached the hockey puck to the pulley using a strong plastic typed material and used a spring to distribute the weight so our motor could turn the hockey puck pulley enough. </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7878972887992859</v>
+        <v>0.6811091899871826</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">These activities can include: selecting and fabricating a "community monument" (an architecture that's meaningful to the local community) building a "3D map" of the neighborhood, etc. </t>
+          <t xml:space="preserve">Then, we began creating a base that would keep the motor elevated and all the aspects in place. </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6457818150520325</v>
+        <v>0.5360558032989502</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Need to prioritize the design details Need to clarify learning goals! </t>
+          <t xml:space="preserve">Eury found a great wood piece that could hold our tube once we found a way to attach the wood the table (it was magnetic but it wouldn't stay on any white boards). </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -927,18 +927,18 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6394872665405273</v>
+        <v>0.5061571002006531</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">holes to attach the circuits Modules for the circuit  However, after talking with Prof. </t>
+          <t xml:space="preserve">Our only issue then was to ensure the tube would stay on same part of the wood each time, tipping in the same location so it would hit the sensor reliably. </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -947,118 +947,118 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.8117911219596863</v>
+        <v>0.6316255331039429</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">The construction of cities with wooden blocks is something recurrent in my work with a group of 5-8-year-olds. </t>
+          <t xml:space="preserve">We laser cut some circles that were slightly bigger than our tube and glued 2 together after realizing only 1 allowed the tube to move too much, and attaching 3 gave too little flexibility. </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6440204381942749</v>
+        <v>0.5237888693809509</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">This objective would be related to setting up a  circuit that would supply energy to the city in a specific way. </t>
+          <t xml:space="preserve">When the "cotton balls" were too wet, they were too heavy and did not slide. </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6015677452087402</v>
+        <v>0.8591346740722656</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">On the board, players can acquire parts of their city, electric circuit, and tips on assembling them. </t>
+          <t xml:space="preserve">When there was only 1-2 "cotton balls", they did not always build up the momentum to move. </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7061073780059814</v>
+        <v>0.5682187080383301</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ElectricCity Recommended age: 8-11 years old  Learning objectives: Identify the parts of an electrical circuit (e.g., battery, wires, switch, light bulb) Describe the flow of electricity in a simple circuit. </t>
+          <t xml:space="preserve">When we used a combination of a few fish, a few blue stones, and more "cotton balls" that were moderately wet, we found the most success. </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8264408707618713</v>
+        <v>0.4932147860527039</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">polarity, closed circuit) Understand the difference between a closed loop and an open loop. </t>
+          <t xml:space="preserve">Reflection Card: Working with a partner was really helpful for this project because we were able to brainstorm and problem solve together, incorporating two different perspectives into the design. </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8252986073493958</v>
+        <v>0.86342453956604</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Explain how switches can be used to turn circuits on and off. </t>
+          <t xml:space="preserve">The combination of coding and 3d movement, similarly as with the laser cutting assignment, demonstrated switching between 2d and 3d seamlessly. </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1067,18 +1067,18 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8194703459739685</v>
+        <v>0.6001269221305847</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Investigate how different types of materials affect the flow of electricity in a circuit. </t>
+          <t xml:space="preserve">Input: Humidity Output: Tilt  First Idea: Gears It didn't tilt, just shake  Second Idea: See-saw Project Everything was done with fittings so we used hot glue only on the magnet. </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1087,18 +1087,18 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7611668705940247</v>
+        <v>0.7603355646133423</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Build and test simple circuits using batteries, wires, and light bulbs. </t>
+          <t xml:space="preserve">Higher sail to capture more fan when the wind builds up in the sail, the seesaw tilts Used a tool to fix the wood into the table. </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1107,18 +1107,18 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.7161621451377869</v>
+        <v>0.602977454662323</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compare and contrast series and parallel circuits. </t>
+          <t xml:space="preserve">Because the previous group was finishing their move at the edge of the table, we built a ramp to continue the moving path. </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1127,18 +1127,18 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7481787204742432</v>
+        <v>0.7197149991989136</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Understand the importance of safety when working with electrical circuits. </t>
+          <t xml:space="preserve">So, we decided to use a car pattern design, cut on the laser cut machine, commonly used in robotics learning settings. </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1147,18 +1147,18 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5406734943389893</v>
+        <v>0.6748781204223633</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">buildings, roads, trees) Parts to build the circuits (e.g. </t>
+          <t xml:space="preserve">Coding the GogoBoard  THE CODE While we were assembling our ramp and car, we coded our GogoBoards. </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1167,18 +1167,18 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7666972875595093</v>
+        <v>0.7492783069610596</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">batteries, wires, switches, light bulbs) Dice (just with the numbers 1, 2, 3) Player markers Players Scenario Hourglass  Objective: Create your city and the electricity circuits on your mission cards. </t>
+          <t xml:space="preserve">Following the tilt action, the first GogoBoard would signal the second to trigger the car motor and play music. </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1187,18 +1187,18 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8245821595191956</v>
+        <v>0.6964400410652161</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">If the house is an electric circuit part: The player can acquire the marked part if the house is a place to receive circuit parts. </t>
+          <t xml:space="preserve">Once the engines are on, they should turn the wheel clockwise attached to them and move straight ahead until the end of the ramp. </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1207,118 +1207,118 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8361459970474243</v>
+        <v>0.6828117966651917</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part 2 - Building Turn the 15 minutes hourglass upside down Try to build the circuits until the time ends. </t>
+          <t xml:space="preserve">The testing was a nightmare. </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7858635783195496</v>
+        <v>0.9367498755455017</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">When the time finishes, the mission is accomplished if the circuit is working. </t>
+          <t xml:space="preserve">First, we couldn't start the engines together and turn the wheel in the same direction. </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.563042163848877</v>
+        <v>0.539002001285553</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Idea #1: Utilizing Virtual Reality to enhance Social-Emotional Learning  - VR allows students to engage in scenarios they may not experience otherwise to help instill empathy  - This is intellectually engaging with a practical significance that can help students generate new ideas and create knowledge about the world  - The power of stories - and being able to bring awareness to develop a more inclusive world  Idea #2: Design Thinking Process to enhance student engagement and knowledge  - The ongoing, iterative process of empathize-define-ideate-prototype-test allows students to engage in real world topics while they problem solve and gain skills beyond just the topic  - About the process not the product  - Through the process, enable students to think beyond themselves (to be empathetic) and learn how to problem solve, think critically, and be creative. </t>
+          <t xml:space="preserve">We changed the code, motors, wheels, and car weight and even turned the engines on opposite sides. </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4675807952880859</v>
+        <v>0.7318049073219299</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emphasis on academic achievement - more focused on academic achievement and prioritizing standardized testing (SEL is not used to evaluate schools, but student performance is...)  3. </t>
+          <t xml:space="preserve">Akio helped us fix the code, although one wheel was faster than the other, which kept the car pending to the right and following through the ramp. </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.6659517288208008</v>
+        <v>0.4905028939247131</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Goal = to expose todayâs youth to a variety of experiences and perspectives by allowing them to explore differences in VR  Dashboard  - Along with experiencing and engaging with VR simulations, teachers and students will have access to a digital platform that will provide discussion and reflection prompts related to the topic they participated in to will help students and teachers engage in challenging discussions with guidance. </t>
+          <t xml:space="preserve">The problem was an old glue that was left on the motor that made the wheel turn wrong. </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5287961363792419</v>
+        <v>0.81569904088974</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not every child in the classroom can engage with the VR headsets at once, so the digital platform will provide other social emotional learning lesson plans including hands-on group community building activities, individual game like lessons, and thoughtful reflections. </t>
+          <t xml:space="preserve">1 - Inspiration;  2- Sketches  THE SIMPLE MACHINE We decided to build a ramp as a simple machine. </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1327,18 +1327,18 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6400057673454285</v>
+        <v>0.586466908454895</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prototype 1_Sketches  Idea 1  Three-dimensional reference system  Learning goal: Allowing students to better understand geometry figure as well as the Cartesian coordinate system within a 3d environment, through different interactive activities and communication with each other. </t>
+          <t xml:space="preserve">We used the laser cut for the ramp and sides because we needed precision. </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1347,18 +1347,18 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.6081108450889587</v>
+        <v>0.6846639513969421</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spatial thinking Embodied cognition route to geometry [Still deciding]: Collaborate or individual learning? </t>
+          <t xml:space="preserve">And the legs we cut at the wood saw and wood sander machine. </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1367,18 +1367,18 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8096356987953186</v>
+        <v>0.6674538254737854</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attached distance/motion sensors(or using projectors) to cover two sides of the wall and the floor space which are all connected with the display screen. </t>
+          <t xml:space="preserve">However, we were unsure about the ideal angle for the ramp, so we employed an adaptable feature to connect its parts: hinges. </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1387,58 +1387,58 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7449237108230591</v>
+        <v>0.6758707165718079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">A distance sensor 2. </t>
+          <t xml:space="preserve">Using the hinges was an excellent decision because when we were testing the car walking, the ramp was too tilted, so effortlessly, we adapted the angle by putting the ramps from part higher. </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8493859767913818</v>
+        <v>0.5508171916007996</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motion sensor 4. </t>
+          <t xml:space="preserve">Also, we decided to inflate the balloon more so the plastic area was finer (good decision). </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.786417543888092</v>
+        <v>0.6745551824569702</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">In this embodied, interactive, and collaborative mathematics-based learning experience, shapes, measurements, spatial relationships, mathematical terms, and theories are explored through physical movements. </t>
+          <t xml:space="preserve">We used some pieces of wood to weigh on the pole bottom and try to balance it. </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1447,18 +1447,18 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.6620380878448486</v>
+        <v>0.7592818140983582</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Idea 2 Two-dimensional Coordinates system  Using sensors/projections to create an interactive mat that lay on the ground (two-dimensional) that would capture students movement in order to allowed students physically create and visualize the directions they are taking. </t>
+          <t xml:space="preserve">The final solution was to wrap the pole with the ramp's last part legs. </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1467,18 +1467,18 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5873668789863586</v>
+        <v>0.6718048453330994</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">I want to make an platform where people can record their family history and reflect on it. </t>
+          <t xml:space="preserve">Circle shaped wood (cut by laser cutter) circumscribe the pipeline. </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1487,18 +1487,18 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.478295624256134</v>
+        <v>0.7240622639656067</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">There can be several different content block to scaffold people on how to think about their family history : 1) What happened: history record(picture, audio, video, doc); 2) Why it happened: factors that lead to the decision (a block to reflect on the influence of macro-historical events, or personal factors that lead to a decision); 3) How things relate: How past decisions of my ancestors affect my life and how my decisions will be affecting future generations (making connection mark on map)  This is the topic that I am most passionate about. </t>
+          <t xml:space="preserve">The number of wood determines the maximum angle of the slant of the pipeline. </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1507,11 +1507,2131 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.7084000110626221</v>
+        <v>0.7978760004043579</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That is, we realized that the number of wood circles and angle of the slant are inversely proportional. </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7408104538917542</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error 3: Too much water (soaked in the cotton) cause too much friction and thus hinder the water transfer. </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8289579749107361</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error 4: dislocation of the pipeline on the wood plate below. </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.6636409759521484</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rube Goldberg: Input: Heartbeat Output: Broadcast wifi message  Design  The general idea is to divide the whole mechanism into two parts, In the first part, the input of heartbeat will transit into motor movement, which will trigger some kind physical mechanism that push the button. </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.7304884791374207</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then, the button will trigger the broadcast mechanism, which will be received by the next group. </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7865948081016541</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At the beginning we had different ideas, such as designing a car that would transport weight and then would deposit the objects triggering the next button. </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6519540548324585</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Finally, we decided to build a pulley with wood, and a box and a gear with the laser cutter machine. </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5006070733070374</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">prototype  We cut a piece of wood to make a base and we cut a wood stick. </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6856973767280579</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then, we made a hole in he base to attach the vertical wood stick. </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6949322819709778</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We made a hole in the vertical stick to attach the gear. </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7383567094802856</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We laser cut 4 circles to build a gear, and a box. </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.7743086814880371</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then, we decided to make another hole in the base to attach the motor. </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6969214081764221</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We put weight in the box to trigger a button behind the box that sends a wifi message to the next station. </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7370195984840393</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We glued the pieces of the box, and added magnets to make the box heavy. </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6831265091896057</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">final station  How we code the two mechanisms with GoGo Code  This is the final version of the box with some flowers as decorations. </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7212004065513611</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At the end, we laser cut a heart to decorate the heartbeat sensor. </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6118884086608887</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It can be difficult to imagine mechanism working, to prototype real physics working, and trying the best materials, and weight. </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.4700081050395966</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We learnt how to shape and work with wood, continue trying laser cutter machine and added physics mechanism. </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5785179734230042</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We then decided to use an extra button and the gear to interpolate between the heartbeat. </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6574068665504456</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Another thing we encountered is how to come up with a solid structure that supports the gear. </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4765206277370453</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">After considering the level of convenience for both, we finally decide on a disc base, which will allow us to fix layout for other elements like the button and the motor. </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5021809935569763</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea 1: Gears Our input is the humidity sensor and output is the tilt/shake sensor. </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8302100896835327</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initially we wanted to make a wall of gears that rotate  A lot of gears work in vertical ways are very beautiful! </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8188665509223938</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We planned to laser cut the gears and found ready-made, free design online  We also prepared other directions in case the gears don't work out. </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.7031902670860291</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The making  Unfortunately, the gears idea did not work out. </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8100337982177734</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The tilt/shake sensor can only send out signal when its face is turned 90 degrees. </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.7400157451629639</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I searched wooden toy online before, and had the idea of adding fan blades to one of the gear to create wind, as a way to "shake" things. </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6033386588096619</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Besides, I have always liked the design of bamboo dragonflies (ç«¹è»è in Chinese) and wonder if I can actually make it and make it fly  I went through a lot of trials and errors to finally understand how to "do 3D design" on the wood in order to draw the right angles and form the curves  Understanding is not enough, wood cut skill is also required. </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.445131242275238</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sketch: Input is the light sensor, which will trigger the motor. </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8186506032943726</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Input: Light Output: Temperature  Our initial sketch of the overall design. </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.8962299227714539</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We wish to create a pulley system as well as a ramp that that would enable the ice/ice bag to drop, which  would eventually trigger the temperature sensor! </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4771102666854858</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We drilled into the base to Â secure the post for the pulley using a handheld drill and the drill machine. </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7108194828033447</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We needed to drill a square that would fit the size of the post. </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5982892513275146</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We also cut wooden barriers to keep the ice on slide and prevent it from falling off the sides. </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5323934555053711</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Took us hours to figure out how to properly connected each pieces together, and using the drill to dig through the wood. </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7046896815299988</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test 1, although the ramp is working properly with the motor, the direction of the falling ice-bag is out of expected. </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.6171219944953918</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">However, it kept get stuck on the wood ramp and having a difficult time to fall into the box. </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7780331373214722</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We then suspect is because of the wood ramp doesnât offer much fraction for the ice-bag to fall. </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.5938262343406677</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test 3, we then tried different plastic bag to help the ice cause we suspect is the weight and the size of the bag that interferes with the falling process. </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.6031838655471802</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">However, after testing, we exclude that is not the case. </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.671895444393158</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At the end, we added a tape to the ramp so it will provide some smoothnesses and less fractionÂ  to the falling process. </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5673789978027344</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Further, instead of putting ice into the bag, we changed to put the sensor into the bag and let the ice falls freely. </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.635350227355957</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We decided to use ice to trigger the temperature sensor in the final step. </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.6428223252296448</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We sketched a few steps to include a pulley and seesaw as our simple machines. </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7624620795249939</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The idea was to begin with the light sensor triggering the motor to start winding the cord attached to the pulley. </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.7645629644393921</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The cord then lifts the seesaw holding the ice and it slides down into the container with the temperature sensor. </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7090110778808594</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We realized that the pulley was not able to lift the weight of the seesaw holding the ice, and also the friction of the wood was preventing the ice from sliding all the way down. </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.7522454261779785</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We added metallic tape to create a slide effect on the seesaw, which allowed the ice to slide much faster. </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.485380619764328</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We then found that the motor was better able to support the weight of the seesaw if we Â secured it above the seesaw, rather than at the same level, so we taped it to the wooden post.Â   Additionally, we learned the importance of choosing and utilizing the right tools to assist us in work - it would not only guarantee the quality of the work, but it will also save you a large amount of time - allowing you to accomplish the task more efficiently. </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4352358281612396</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For instance, when we want to make sure that the motor steadily stays on the wood stick and above the ground, we need to find a way to dig a hole in the vertical stick since hot glue and wood glue are neither strong enough to hold the motor in place. </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.6066817045211792</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">With Akio's help, we tried four different drills/tools/woodcutters before we found the right one we needed! </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.574980616569519</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rube Goldberg input: Wifi receive output:  Light  IDEATE: Helen noticed that after making her phone stand in class that it did not function properly, so we decided to repurpose it into our project After meeting we discussed various ideas, but landed on the concept that we wanted the phone to fall from the stand to cover the light sensor...so then we worked backwards to decide how to get the phone stand to stay up and then when released fall over We utilized the simple machines website to help us develop various ideas of how to incorporate an incline plane and a pulley system  This image shows our sketching process after discussing our ideas  PROTOTYPE: We broke the project into sections:  Incline Plane:  Pulley:  Light Box:  The incline plane involved some adjustments as we added in the servo to "open the door" for the marbles and therefore had to cut a slit in the wall. </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.5119039416313171</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Also, we retroactively deiced to add a distance sensor which involved late drilling a hole in order get the sensor to fit in. </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.6525898575782776</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If we had planned this out better then we could have put the slit and holes in before creating the stand  The pulley was quick to make by making a base and to walls and I was able to repurpose a wire spool to allow the string to rotate through. </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5500537753105164</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Super simple - we just created a box, but we had to measure out where to place the box so the phone lands on it without tipping over, and with that had to weight the box down so that it stayed still when the phone fell on it. </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.7053060531616211</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Code  When receive a message -- servo moves 90 degrees to open the door, which releases the marble down the incline plane. </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.6980544328689575</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When the marble passes the distance sensor on the plane it triggers LED lights (ADD CODE IMAGES/TALK ABOUT CODING IT)  Reflect   	â¢	We could have planned out our incline better about creating holes for the "door" and the distance sensor before putting it together 	â¢	We could have created a more secure way to use the pulley to hold down the phone case...it takes some moving around to get it aka is not quick/consistent to set up 	â¢	We saw that GoGoBoard 6 have a port called rgblight so we wanted to try to connect neo pixel to it. </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.5352935194969177</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akio sent us a very nice tutorial and we experimented with the Arduino blocks to code the neo pixel. </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.6635134220123291</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sketch: Input is the light sensor, which will trigger the motor. </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8186506032943726</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Input: Light Output: Temperature  Our initial sketch of the overall design. </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8962299227714539</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We wish to create a pulley system as well as a ramp that that would enable the ice/ice bag to drop, which  would eventually trigger the temperature sensor! </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.4771102666854858</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We drilled into the base to Â secure the post for the pulley using a handheld drill and the drill machine. </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7108194828033447</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We needed to drill a square that would fit the size of the post. </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5982892513275146</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We also cut wooden barriers to keep the ice on slide and prevent it from falling off the sides. </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5323934555053711</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Took us hours to figure out how to properly connected each pieces together, and using the drill to dig through the wood. </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.7046896815299988</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test 1, although the ramp is working properly with the motor, the direction of the falling ice-bag is out of expected. </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.6171219944953918</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">However, it kept get stuck on the wood ramp and having a difficult time to fall into the box. </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.7780331373214722</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We then suspect is because of the wood ramp doesnât offer much fraction for the ice-bag to fall. </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5938262343406677</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test 3, we then tried different plastic bag to help the ice cause we suspect is the weight and the size of the bag that interferes with the falling process. </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.6031838655471802</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">However, after testing, we exclude that is not the case. </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.671895444393158</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At the end, we added a tape to the ramp so it will provide some smoothnesses and less fractionÂ  to the falling process. </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5673789978027344</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Further, instead of putting ice into the bag, we changed to put the sensor into the bag and let the ice falls freely. </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.635350227355957</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We decided to use ice to trigger the temperature sensor in the final step. </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.6428223252296448</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We sketched a few steps to include a pulley and seesaw as our simple machines. </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.7624620795249939</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The idea was to begin with the light sensor triggering the motor to start winding the cord attached to the pulley. </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.7645629644393921</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The cord then lifts the seesaw holding the ice and it slides down into the container with the temperature sensor. </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.7090110778808594</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We realized that the pulley was not able to lift the weight of the seesaw holding the ice, and also the friction of the wood was preventing the ice from sliding all the way down. </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.7522454261779785</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We added metallic tape to create a slide effect on the seesaw, which allowed the ice to slide much faster. </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.485380619764328</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Â We then found that the motor was better able to support the weight of the seesaw if we Â secured it above the seesaw, rather than at the same level, so we taped it to the wooden post.Â   Additionally, we learned the importance of choosing and utilizing the right tools to assist us in work - it would not only guarantee the quality of the work, but it will also save you a large amount of time - allowing you to accomplish the task more efficiently. </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4352358281612396</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For instance, when we want to make sure that the motor steadily stays on the wood stick and above the ground, we need to find a way to dig a hole in the vertical stick since hot glue and wood glue are neither strong enough to hold the motor in place. </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.6066817045211792</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">With Akio's help, we tried four different drills/tools/woodcutters before we found the right one we needed! </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.574980616569519</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rube Goldberg input: Wifi receive output:  Light  IDEATE: Helen noticed that after making her phone stand in class that it did not function properly, so we decided to repurpose it into our project After meeting we discussed various ideas, but landed on the concept that we wanted the phone to fall from the stand to cover the light sensor...so then we worked backwards to decide how to get the phone stand to stay up and then when released fall over We utilized the simple machines website to help us develop various ideas of how to incorporate an incline plane and a pulley system  This image shows our sketching process after discussing our ideas  PROTOTYPE: We broke the project into sections:  Incline Plane:  Pulley:  Light Box:  The incline plane involved some adjustments as we added in the servo to "open the door" for the marbles and therefore had to cut a slit in the wall. </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5119039416313171</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Also, we retroactively deiced to add a distance sensor which involved late drilling a hole in order get the sensor to fit in. </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.6525898575782776</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If we had planned this out better then we could have put the slit and holes in before creating the stand  The pulley was quick to make by making a base and to walls and I was able to repurpose a wire spool to allow the string to rotate through. </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5500537753105164</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Super simple - we just created a box, but we had to measure out where to place the box so the phone lands on it without tipping over, and with that had to weight the box down so that it stayed still when the phone fell on it. </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.7053060531616211</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Code  When receive a message -- servo moves 90 degrees to open the door, which releases the marble down the incline plane. </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.6980544328689575</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When the marble passes the distance sensor on the plane it triggers LED lights (ADD CODE IMAGES/TALK ABOUT CODING IT)  Reflect   	â¢	We could have planned out our incline better about creating holes for the "door" and the distance sensor before putting it together 	â¢	We could have created a more secure way to use the pulley to hold down the phone case...it takes some moving around to get it aka is not quick/consistent to set up 	â¢	We saw that GoGoBoard 6 have a port called rgblight so we wanted to try to connect neo pixel to it. </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5352935194969177</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akio sent us a very nice tutorial and we experimented with the Arduino blocks to code the neo pixel. </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.6635134220123291</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Because the previous group was finishing their move at the edge of the table, we built a ramp to continue the moving path. </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.7197149991989136</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So, we decided to use a car pattern design, cut on the laser cut machine, commonly used in robotics learning settings. </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.6748781204223633</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coding the GogoBoard  THE CODE While we were assembling our ramp and car, we coded our GogoBoards. </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.7492783069610596</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Following the tilt action, the first GogoBoard would signal the second to trigger the car motor and play music. </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.6964400410652161</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Once the engines are on, they should turn the wheel clockwise attached to them and move straight ahead until the end of the ramp. </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.6828117966651917</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The testing was a nightmare. </t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9367498755455017</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First, we couldn't start the engines together and turn the wheel in the same direction. </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.539002001285553</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We changed the code, motors, wheels, and car weight and even turned the engines on opposite sides. </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.7318049073219299</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akio helped us fix the code, although one wheel was faster than the other, which kept the car pending to the right and following through the ramp. </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4905028939247131</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The problem was an old glue that was left on the motor that made the wheel turn wrong. </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.81569904088974</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 - Inspiration;  2- Sketches  THE SIMPLE MACHINE We decided to build a ramp as a simple machine. </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.586466908454895</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We used the laser cut for the ramp and sides because we needed precision. </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.6846639513969421</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And the legs we cut at the wood saw and wood sander machine. </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.6674538254737854</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">However, we were unsure about the ideal angle for the ramp, so we employed an adaptable feature to connect its parts: hinges. </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.6758707165718079</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Using the hinges was an excellent decision because when we were testing the car walking, the ramp was too tilted, so effortlessly, we adapted the angle by putting the ramps from part higher. </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.5508171916007996</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Also, we decided to inflate the balloon more so the plastic area was finer (good decision). </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.6745551824569702</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We used some pieces of wood to weigh on the pole bottom and try to balance it. </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.7592818140983582</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The final solution was to wrap the pole with the ramp's last part legs. </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.6718048453330994</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>08</t>
         </is>
       </c>
     </row>
